--- a/data/Microtag_Scan_Key.xlsx
+++ b/data/Microtag_Scan_Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\millertp1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF365BF1-E740-4253-9C34-C41509B4182A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84942AD-BB54-C84E-8A6E-5DD1E9EFB96C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16760" yWindow="9600" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RGY</t>
   </si>
@@ -46,18 +46,39 @@
   </si>
   <si>
     <t>aSi</t>
+  </si>
+  <si>
+    <t>aRi</t>
+  </si>
+  <si>
+    <t>aRs</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -81,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,20 +385,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -386,8 +408,14 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -397,8 +425,14 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -407,6 +441,9 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/Microtag_Scan_Key.xlsx
+++ b/data/Microtag_Scan_Key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84942AD-BB54-C84E-8A6E-5DD1E9EFB96C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431399EB-E3D0-B642-9D22-1A32623F5162}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16760" yWindow="9600" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>RGY</t>
-  </si>
-  <si>
-    <t>M-B</t>
-  </si>
-  <si>
-    <t>GRR</t>
-  </si>
-  <si>
-    <t>M-C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>aM</t>
   </si>
@@ -54,13 +42,28 @@
     <t>aRs</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>RBY</t>
+  </si>
+  <si>
+    <t>YRR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -400,47 +403,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
